--- a/queryGenerators/FlatConnect_queries/clinicalBioSurvey_v1/development/clinicalBioSurvey_v1-schema.xlsx
+++ b/queryGenerators/FlatConnect_queries/clinicalBioSurvey_v1/development/clinicalBioSurvey_v1-schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petersjm/Documents/dataFlattening/flatteningRequests/queryGenerators/clinicalBioSurvey_v1/development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petersjm/Documents/dataFlattening/flatteningRequests/queryGenerators/FlatConnect_queries/clinicalBioSurvey_v1/development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD3FC76-D60B-1C44-9126-08D85BB97BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234DBD52-6C1C-DC43-AF9D-318378B71C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{CB809443-AAFF-3549-B44A-633A501E6409}"/>
+    <workbookView xWindow="2200" yWindow="1200" windowWidth="28040" windowHeight="17440" xr2:uid="{CB809443-AAFF-3549-B44A-633A501E6409}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="303">
   <si>
     <t>fullname</t>
   </si>
@@ -71,15 +71,6 @@
     <t>D_867307558</t>
   </si>
   <si>
-    <t>D_191057574</t>
-  </si>
-  <si>
-    <t>D_299417266</t>
-  </si>
-  <si>
-    <t>D_689861450</t>
-  </si>
-  <si>
     <t>D_487532606</t>
   </si>
   <si>
@@ -155,30 +146,6 @@
     <t>D_775313030_1_1</t>
   </si>
   <si>
-    <t>D_744230001_1_1</t>
-  </si>
-  <si>
-    <t>D_782396371_1_1</t>
-  </si>
-  <si>
-    <t>D_930944000_1_1</t>
-  </si>
-  <si>
-    <t>D_984121390_1_1</t>
-  </si>
-  <si>
-    <t>D_179406442_1_1</t>
-  </si>
-  <si>
-    <t>D_803339020_1_1</t>
-  </si>
-  <si>
-    <t>D_893966847_1_1</t>
-  </si>
-  <si>
-    <t>D_169509213_1_1</t>
-  </si>
-  <si>
     <t>D_847578001</t>
   </si>
   <si>
@@ -239,36 +206,15 @@
     <t>D_110872086</t>
   </si>
   <si>
-    <t>D_637540387</t>
-  </si>
-  <si>
-    <t>D_591826144</t>
-  </si>
-  <si>
     <t>D_114280729</t>
   </si>
   <si>
-    <t>D_747085418</t>
-  </si>
-  <si>
-    <t>D_770190369</t>
-  </si>
-  <si>
-    <t>D_336856410</t>
-  </si>
-  <si>
     <t>D_994153376</t>
   </si>
   <si>
-    <t>D_702905707</t>
-  </si>
-  <si>
     <t>D_790860504</t>
   </si>
   <si>
-    <t>D_518602598</t>
-  </si>
-  <si>
     <t>D_374567479</t>
   </si>
   <si>
@@ -281,141 +227,33 @@
     <t>D_590361055</t>
   </si>
   <si>
-    <t>D_481587023</t>
-  </si>
-  <si>
     <t>D_108389123</t>
   </si>
   <si>
     <t>D_605818246</t>
   </si>
   <si>
-    <t>D_934384452</t>
-  </si>
-  <si>
-    <t>D_273371161</t>
-  </si>
-  <si>
-    <t>D_959877599</t>
-  </si>
-  <si>
-    <t>D_908044428</t>
-  </si>
-  <si>
-    <t>D_700620868</t>
-  </si>
-  <si>
-    <t>D_890156588</t>
-  </si>
-  <si>
-    <t>D_877074400</t>
-  </si>
-  <si>
-    <t>D_715581797_1_1</t>
-  </si>
-  <si>
     <t>D_220055064_1_1</t>
   </si>
   <si>
-    <t>D_715581797_2_2</t>
-  </si>
-  <si>
     <t>D_220055064_2_2</t>
   </si>
   <si>
-    <t>D_715581797_3_3</t>
-  </si>
-  <si>
     <t>D_220055064_3_3</t>
   </si>
   <si>
-    <t>D_715581797_4_4</t>
-  </si>
-  <si>
     <t>D_220055064_4_4</t>
   </si>
   <si>
-    <t>D_715581797_5_5</t>
-  </si>
-  <si>
     <t>D_220055064_5_5</t>
   </si>
   <si>
-    <t>D_395747093_5_5</t>
-  </si>
-  <si>
-    <t>D_715581797_6_6</t>
-  </si>
-  <si>
     <t>D_220055064_6_6</t>
   </si>
   <si>
-    <t>D_715581797_7_7</t>
-  </si>
-  <si>
-    <t>D_220055064_7_7</t>
-  </si>
-  <si>
-    <t>D_715581797_8_8</t>
-  </si>
-  <si>
-    <t>D_220055064_8_8</t>
-  </si>
-  <si>
-    <t>D_715581797_9_9</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9</t>
-  </si>
-  <si>
-    <t>D_395747093_9_9</t>
-  </si>
-  <si>
-    <t>D_715581797_10_10</t>
-  </si>
-  <si>
-    <t>D_220055064_10_10</t>
-  </si>
-  <si>
-    <t>treeJSON</t>
-  </si>
-  <si>
     <t>BOOLEAN</t>
   </si>
   <si>
-    <t>D_980800222_2_2</t>
-  </si>
-  <si>
-    <t>D_366972678_2_2</t>
-  </si>
-  <si>
-    <t>D_173502329_2_2</t>
-  </si>
-  <si>
-    <t>D_366980310_2_2</t>
-  </si>
-  <si>
-    <t>D_694503437_2_2</t>
-  </si>
-  <si>
-    <t>D_451163824_2_2</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2</t>
-  </si>
-  <si>
-    <t>D_928530823_2_2</t>
-  </si>
-  <si>
-    <t>D_108733102_2_2</t>
-  </si>
-  <si>
-    <t>D_389465772_2_2</t>
-  </si>
-  <si>
-    <t>D_775313030_2_2</t>
-  </si>
-  <si>
     <t>D_498462481_1_1</t>
   </si>
   <si>
@@ -467,15 +305,6 @@
     <t>D_424718457</t>
   </si>
   <si>
-    <t>D_157417942</t>
-  </si>
-  <si>
-    <t>D_368715875</t>
-  </si>
-  <si>
-    <t>D_589004291</t>
-  </si>
-  <si>
     <t>Connect_ID</t>
   </si>
   <si>
@@ -515,30 +344,6 @@
     <t>D_705336878_1_1.__key__.id</t>
   </si>
   <si>
-    <t>D_220055064_10_10.D_220055064_10_10</t>
-  </si>
-  <si>
-    <t>D_220055064_10_10.__key__</t>
-  </si>
-  <si>
-    <t>D_220055064_10_10.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_220055064_10_10.__key__.app</t>
-  </si>
-  <si>
-    <t>D_220055064_10_10.__key__.path</t>
-  </si>
-  <si>
-    <t>D_220055064_10_10.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_220055064_10_10.__key__.name</t>
-  </si>
-  <si>
-    <t>D_220055064_10_10.__key__.id</t>
-  </si>
-  <si>
     <t>D_220055064_3_3.D_220055064_3_3</t>
   </si>
   <si>
@@ -566,9 +371,6 @@
     <t>D_220055064_5_5.D_220055064_5_5</t>
   </si>
   <si>
-    <t>D_220055064_5_5.D_395747093_5_5</t>
-  </si>
-  <si>
     <t>D_220055064_5_5.__key__</t>
   </si>
   <si>
@@ -590,9 +392,6 @@
     <t>D_220055064_5_5.__key__.id</t>
   </si>
   <si>
-    <t>D_110872086.D_637540387</t>
-  </si>
-  <si>
     <t>D_110872086.D_110872086</t>
   </si>
   <si>
@@ -665,30 +464,6 @@
     <t>D_220055064_6_6.__key__.id</t>
   </si>
   <si>
-    <t>D_220055064_8_8.D_220055064_8_8</t>
-  </si>
-  <si>
-    <t>D_220055064_8_8.__key__</t>
-  </si>
-  <si>
-    <t>D_220055064_8_8.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_220055064_8_8.__key__.app</t>
-  </si>
-  <si>
-    <t>D_220055064_8_8.__key__.path</t>
-  </si>
-  <si>
-    <t>D_220055064_8_8.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_220055064_8_8.__key__.name</t>
-  </si>
-  <si>
-    <t>D_220055064_8_8.__key__.id</t>
-  </si>
-  <si>
     <t>D_980800222_1_1.D_366972678_1_1</t>
   </si>
   <si>
@@ -740,33 +515,6 @@
     <t>D_220055064_2_2.__key__.id</t>
   </si>
   <si>
-    <t>D_959877599.D_908044428</t>
-  </si>
-  <si>
-    <t>D_959877599.D_700620868</t>
-  </si>
-  <si>
-    <t>D_959877599.__key__</t>
-  </si>
-  <si>
-    <t>D_959877599.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_959877599.__key__.app</t>
-  </si>
-  <si>
-    <t>D_959877599.__key__.path</t>
-  </si>
-  <si>
-    <t>D_959877599.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_959877599.__key__.name</t>
-  </si>
-  <si>
-    <t>D_959877599.__key__.id</t>
-  </si>
-  <si>
     <t>D_220055064_4_4.D_220055064_4_4</t>
   </si>
   <si>
@@ -821,27 +569,12 @@
     <t>D_487532606.__key__.id</t>
   </si>
   <si>
-    <t>D_114280729.D_747085418</t>
-  </si>
-  <si>
-    <t>D_114280729.D_770190369</t>
-  </si>
-  <si>
-    <t>D_114280729.D_336856410</t>
-  </si>
-  <si>
     <t>D_114280729.D_994153376</t>
   </si>
   <si>
     <t>D_114280729.D_790860504</t>
   </si>
   <si>
-    <t>D_114280729.D_702905707</t>
-  </si>
-  <si>
-    <t>D_114280729.D_518602598</t>
-  </si>
-  <si>
     <t>D_114280729.D_374567479</t>
   </si>
   <si>
@@ -854,9 +587,6 @@
     <t>D_114280729.D_590361055</t>
   </si>
   <si>
-    <t>D_114280729.D_481587023</t>
-  </si>
-  <si>
     <t>D_114280729.D_108389123</t>
   </si>
   <si>
@@ -923,30 +653,6 @@
     <t>D_847578001.__key__.id</t>
   </si>
   <si>
-    <t>D_220055064_7_7.D_220055064_7_7</t>
-  </si>
-  <si>
-    <t>D_220055064_7_7.__key__</t>
-  </si>
-  <si>
-    <t>D_220055064_7_7.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_220055064_7_7.__key__.app</t>
-  </si>
-  <si>
-    <t>D_220055064_7_7.__key__.path</t>
-  </si>
-  <si>
-    <t>D_220055064_7_7.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_220055064_7_7.__key__.name</t>
-  </si>
-  <si>
-    <t>D_220055064_7_7.__key__.id</t>
-  </si>
-  <si>
     <t>D_751358419.D_238135048</t>
   </si>
   <si>
@@ -983,33 +689,6 @@
     <t>D_751358419.__key__.id</t>
   </si>
   <si>
-    <t>D_220055064_9_9.D_395747093_9_9</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9.D_220055064_9_9</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9.__key__</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9.__key__.app</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9.__key__.path</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9.__key__.name</t>
-  </si>
-  <si>
-    <t>D_220055064_9_9.__key__.id</t>
-  </si>
-  <si>
     <t>D_136730307.D_989576239</t>
   </si>
   <si>
@@ -1046,57 +725,6 @@
     <t>D_136730307.__key__.id</t>
   </si>
   <si>
-    <t>D_980800222_2_2.D_366972678_2_2</t>
-  </si>
-  <si>
-    <t>D_980800222_2_2.D_173502329_2_2</t>
-  </si>
-  <si>
-    <t>D_980800222_2_2.__key__</t>
-  </si>
-  <si>
-    <t>D_980800222_2_2.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_980800222_2_2.__key__.app</t>
-  </si>
-  <si>
-    <t>D_980800222_2_2.__key__.path</t>
-  </si>
-  <si>
-    <t>D_980800222_2_2.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_980800222_2_2.__key__.name</t>
-  </si>
-  <si>
-    <t>D_980800222_2_2.__key__.id</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2.D_705336878_2_2</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2.__key__</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2.__key__.namespace</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2.__key__.app</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2.__key__.path</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2.__key__.kind</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2.__key__.name</t>
-  </si>
-  <si>
-    <t>D_705336878_2_2.__key__.id</t>
-  </si>
-  <si>
     <t>D_813989715.D_580629349</t>
   </si>
   <si>
@@ -1178,9 +806,6 @@
     <t>D_857165713.__key__.id</t>
   </si>
   <si>
-    <t>D_424718457.D_157417942</t>
-  </si>
-  <si>
     <t>D_424718457.D_424718457</t>
   </si>
   <si>
@@ -1221,6 +846,105 @@
   </si>
   <si>
     <t>__key__.id</t>
+  </si>
+  <si>
+    <t>D_644459734</t>
+  </si>
+  <si>
+    <t>D_191057574_V2</t>
+  </si>
+  <si>
+    <t>D_877074400_V2</t>
+  </si>
+  <si>
+    <t>D_890156588_V2</t>
+  </si>
+  <si>
+    <t>D_689861450_V2</t>
+  </si>
+  <si>
+    <t>D_299417266_V2</t>
+  </si>
+  <si>
+    <t>D_112151599</t>
+  </si>
+  <si>
+    <t>D_715581797_V2_4_4</t>
+  </si>
+  <si>
+    <t>D_715581797_V2_3_3</t>
+  </si>
+  <si>
+    <t>D_715581797_V2_2_2</t>
+  </si>
+  <si>
+    <t>D_715581797_V2_1_1</t>
+  </si>
+  <si>
+    <t>D_715581797_V2_6_6</t>
+  </si>
+  <si>
+    <t>D_749956170</t>
+  </si>
+  <si>
+    <t>D_715581797_V2_5_5</t>
+  </si>
+  <si>
+    <t>D_705336878_1_1.D_218852075_1_1</t>
+  </si>
+  <si>
+    <t>D_218852075_1_1</t>
+  </si>
+  <si>
+    <t>D_749956170.D_143206081</t>
+  </si>
+  <si>
+    <t>D_143206081</t>
+  </si>
+  <si>
+    <t>D_749956170.D_304155106</t>
+  </si>
+  <si>
+    <t>D_304155106</t>
+  </si>
+  <si>
+    <t>D_749956170.D_830581863</t>
+  </si>
+  <si>
+    <t>D_830581863</t>
+  </si>
+  <si>
+    <t>D_749956170.__key__</t>
+  </si>
+  <si>
+    <t>D_749956170.__key__.namespace</t>
+  </si>
+  <si>
+    <t>D_749956170.__key__.app</t>
+  </si>
+  <si>
+    <t>D_749956170.__key__.path</t>
+  </si>
+  <si>
+    <t>D_749956170.__key__.kind</t>
+  </si>
+  <si>
+    <t>D_749956170.__key__.name</t>
+  </si>
+  <si>
+    <t>D_749956170.__key__.id</t>
+  </si>
+  <si>
+    <t>D_114280729.D_368669706</t>
+  </si>
+  <si>
+    <t>D_368669706</t>
+  </si>
+  <si>
+    <t>D_114280729.D_109223043</t>
+  </si>
+  <si>
+    <t>D_109223043</t>
   </si>
 </sst>
 </file>
@@ -1585,17 +1309,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A90766-381B-9A45-995C-CB761BC90265}">
-  <dimension ref="A1:D330"/>
+  <dimension ref="A1:D329"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D330"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1614,49 +1339,49 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -1665,12 +1390,12 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -1679,26 +1404,26 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -1707,68 +1432,68 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -1777,40 +1502,40 @@
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
@@ -1819,12 +1544,12 @@
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -1833,12 +1558,12 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
@@ -1847,26 +1572,26 @@
         <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>146</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -1875,26 +1600,26 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -1903,12 +1628,12 @@
         <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
@@ -1917,40 +1642,40 @@
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
@@ -1959,26 +1684,26 @@
         <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
@@ -1987,12 +1712,12 @@
         <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -2001,12 +1726,12 @@
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
@@ -2015,26 +1740,26 @@
         <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>23</v>
+        <v>275</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
@@ -2043,12 +1768,12 @@
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>23</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>4</v>
@@ -2057,12 +1782,12 @@
         <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
@@ -2071,12 +1796,12 @@
         <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>4</v>
@@ -2085,12 +1810,12 @@
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
@@ -2099,12 +1824,12 @@
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>276</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
@@ -2113,12 +1838,12 @@
         <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>35</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
@@ -2127,40 +1852,40 @@
         <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>4</v>
@@ -2169,12 +1894,12 @@
         <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
@@ -2183,12 +1908,12 @@
         <v>6</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>20</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
@@ -2197,12 +1922,12 @@
         <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
@@ -2211,12 +1936,12 @@
         <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4</v>
@@ -2225,12 +1950,12 @@
         <v>6</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
@@ -2239,12 +1964,12 @@
         <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>38</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>4</v>
@@ -2253,12 +1978,12 @@
         <v>5</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
@@ -2267,12 +1992,12 @@
         <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>147</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>4</v>
@@ -2281,40 +2006,40 @@
         <v>5</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
@@ -2323,12 +2048,12 @@
         <v>5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>4</v>
@@ -2337,26 +2062,26 @@
         <v>5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>4</v>
@@ -2364,23 +2089,19 @@
       <c r="C55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
@@ -2390,15 +2111,13 @@
         <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>4</v>
@@ -2407,68 +2126,62 @@
         <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>4</v>
@@ -2476,13 +2189,11 @@
       <c r="C63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>4</v>
@@ -2490,41 +2201,35 @@
       <c r="C64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>4</v>
@@ -2533,54 +2238,50 @@
         <v>6</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>41</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>125</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>115</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>4</v>
@@ -2588,13 +2289,11 @@
       <c r="C71" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>4</v>
@@ -2602,27 +2301,23 @@
       <c r="C72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>121</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>4</v>
@@ -2630,27 +2325,23 @@
       <c r="C74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>4</v>
@@ -2659,26 +2350,24 @@
         <v>6</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>124</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>4</v>
@@ -2686,13 +2375,11 @@
       <c r="C78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>4</v>
@@ -2700,27 +2387,23 @@
       <c r="C79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>4</v>
@@ -2728,103 +2411,97 @@
       <c r="C81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>134</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="D87" s="2"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>4</v>
@@ -2836,7 +2513,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>4</v>
@@ -2848,19 +2525,19 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>4</v>
@@ -2868,35 +2545,37 @@
       <c r="C92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="2"/>
+      <c r="D92" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>4</v>
@@ -2904,25 +2583,23 @@
       <c r="C95" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>4</v>
@@ -2934,7 +2611,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>4</v>
@@ -2946,19 +2623,19 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>4</v>
@@ -2966,11 +2643,13 @@
       <c r="C100" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="2"/>
+      <c r="D100" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>4</v>
@@ -2978,49 +2657,51 @@
       <c r="C101" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="2"/>
+      <c r="D101" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D102" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D103" s="2"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>4</v>
@@ -3032,7 +2713,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>4</v>
@@ -3044,7 +2725,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>4</v>
@@ -3056,7 +2737,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>4</v>
@@ -3068,45 +2749,45 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D110" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D111" s="2"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>4</v>
@@ -3114,25 +2795,23 @@
       <c r="C112" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="D112" s="2"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>4</v>
@@ -3144,7 +2823,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>4</v>
@@ -3156,7 +2835,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>4</v>
@@ -3168,19 +2847,19 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D117" s="2"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>4</v>
@@ -3188,23 +2867,25 @@
       <c r="C118" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D118" s="2"/>
+      <c r="D118" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D119" s="2"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>4</v>
@@ -3212,13 +2893,11 @@
       <c r="C120" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="D120" s="2"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>4</v>
@@ -3226,25 +2905,23 @@
       <c r="C121" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="D121" s="2"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D122" s="2"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>4</v>
@@ -3256,7 +2933,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>4</v>
@@ -3268,19 +2945,19 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>4</v>
@@ -3288,11 +2965,13 @@
       <c r="C126" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D126" s="2"/>
+      <c r="D126" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>4</v>
@@ -3300,23 +2979,27 @@
       <c r="C127" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D127" s="2"/>
+      <c r="D127" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D128" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>4</v>
@@ -3325,24 +3008,26 @@
         <v>6</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>4</v>
@@ -3350,23 +3035,25 @@
       <c r="C131" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D131" s="2"/>
+      <c r="D131" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>4</v>
@@ -3378,7 +3065,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>4</v>
@@ -3390,7 +3077,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>4</v>
@@ -3402,19 +3089,19 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D136" s="2"/>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>4</v>
@@ -3422,25 +3109,23 @@
       <c r="C137" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="D137" s="2"/>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D138" s="2"/>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>4</v>
@@ -3448,11 +3133,13 @@
       <c r="C139" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D139" s="2"/>
+      <c r="D139" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>4</v>
@@ -3460,11 +3147,13 @@
       <c r="C140" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D140" s="2"/>
+      <c r="D140" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>4</v>
@@ -3472,11 +3161,13 @@
       <c r="C141" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D141" s="2"/>
+      <c r="D141" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>4</v>
@@ -3484,11 +3175,13 @@
       <c r="C142" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D142" s="2"/>
+      <c r="D142" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>4</v>
@@ -3496,23 +3189,25 @@
       <c r="C143" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D143" s="2"/>
+      <c r="D143" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D144" s="2"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>4</v>
@@ -3520,25 +3215,23 @@
       <c r="C145" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="D145" s="2"/>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D146" s="2"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>4</v>
@@ -3550,7 +3243,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>4</v>
@@ -3562,7 +3255,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>4</v>
@@ -3574,19 +3267,19 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>4</v>
@@ -3594,23 +3287,27 @@
       <c r="C151" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D151" s="2"/>
+      <c r="D151" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D152" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>4</v>
@@ -3619,12 +3316,12 @@
         <v>6</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>4</v>
@@ -3633,36 +3330,38 @@
         <v>6</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D155" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D156" s="2"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>4</v>
@@ -3674,7 +3373,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>4</v>
@@ -3686,7 +3385,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>4</v>
@@ -3698,7 +3397,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>4</v>
@@ -3710,45 +3409,45 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D162" s="2"/>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D163" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>4</v>
@@ -3756,11 +3455,13 @@
       <c r="C164" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D164" s="2"/>
+      <c r="D164" s="2" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>4</v>
@@ -3768,23 +3469,25 @@
       <c r="C165" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D165" s="2"/>
+      <c r="D165" s="2" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>4</v>
@@ -3796,7 +3499,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>4</v>
@@ -3808,19 +3511,19 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D169" s="2"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>4</v>
@@ -3828,13 +3531,11 @@
       <c r="C170" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="D170" s="2"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>4</v>
@@ -3842,25 +3543,23 @@
       <c r="C171" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="D171" s="2"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D172" s="2"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>4</v>
@@ -3868,23 +3567,25 @@
       <c r="C173" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D173" s="2"/>
+      <c r="D173" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D174" s="2"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>4</v>
@@ -3896,7 +3597,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2" t="s">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>4</v>
@@ -3908,7 +3609,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2" t="s">
-        <v>241</v>
+        <v>114</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>4</v>
@@ -3920,19 +3621,19 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2" t="s">
-        <v>242</v>
+        <v>115</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D178" s="2"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2" t="s">
-        <v>243</v>
+        <v>116</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>4</v>
@@ -3940,25 +3641,23 @@
       <c r="C179" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="D179" s="2"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>244</v>
+        <v>117</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>4</v>
@@ -3966,11 +3665,13 @@
       <c r="C181" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D181" s="2"/>
+      <c r="D181" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>4</v>
@@ -3978,11 +3679,13 @@
       <c r="C182" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D182" s="2"/>
+      <c r="D182" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>4</v>
@@ -3990,11 +3693,13 @@
       <c r="C183" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D183" s="2"/>
+      <c r="D183" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>4</v>
@@ -4002,11 +3707,13 @@
       <c r="C184" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D184" s="2"/>
+      <c r="D184" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>4</v>
@@ -4014,37 +3721,39 @@
       <c r="C185" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D185" s="2"/>
+      <c r="D185" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D186" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D187" s="2"/>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>4</v>
@@ -4052,13 +3761,11 @@
       <c r="C188" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D188" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D188" s="2"/>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>4</v>
@@ -4066,25 +3773,23 @@
       <c r="C189" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D189" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="D189" s="2"/>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D190" s="2"/>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>4</v>
@@ -4096,7 +3801,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>4</v>
@@ -4108,19 +3813,19 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D193" s="2"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>258</v>
+        <v>134</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>4</v>
@@ -4128,35 +3833,37 @@
       <c r="C194" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D194" s="2"/>
+      <c r="D194" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>259</v>
+        <v>135</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D195" s="2"/>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2" t="s">
-        <v>260</v>
+        <v>136</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D196" s="2"/>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2" t="s">
-        <v>261</v>
+        <v>137</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>4</v>
@@ -4164,13 +3871,11 @@
       <c r="C197" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D197" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="D197" s="2"/>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2" t="s">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>4</v>
@@ -4178,13 +3883,11 @@
       <c r="C198" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="D198" s="2"/>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2" t="s">
-        <v>263</v>
+        <v>139</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>4</v>
@@ -4192,13 +3895,11 @@
       <c r="C199" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="D199" s="2"/>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2" t="s">
-        <v>264</v>
+        <v>140</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>4</v>
@@ -4206,27 +3907,23 @@
       <c r="C200" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="D200" s="2"/>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2" t="s">
-        <v>265</v>
+        <v>141</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D201" s="2"/>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>4</v>
@@ -4235,12 +3932,12 @@
         <v>6</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>4</v>
@@ -4249,12 +3946,12 @@
         <v>6</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>4</v>
@@ -4263,12 +3960,12 @@
         <v>6</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>4</v>
@@ -4277,12 +3974,12 @@
         <v>6</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>4</v>
@@ -4291,12 +3988,12 @@
         <v>6</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>4</v>
@@ -4305,12 +4002,12 @@
         <v>6</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>4</v>
@@ -4319,26 +4016,24 @@
         <v>6</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D209" s="2"/>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>4</v>
@@ -4346,25 +4041,23 @@
       <c r="C210" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D210" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="D210" s="2"/>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D211" s="2"/>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>4</v>
@@ -4376,7 +4069,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>4</v>
@@ -4388,7 +4081,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>4</v>
@@ -4400,19 +4093,19 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D215" s="2"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>4</v>
@@ -4420,23 +4113,25 @@
       <c r="C216" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D216" s="2"/>
+      <c r="D216" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D217" s="2"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>4</v>
@@ -4444,13 +4139,11 @@
       <c r="C218" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D218" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="D218" s="2"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>4</v>
@@ -4458,13 +4151,11 @@
       <c r="C219" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="D219" s="2"/>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>4</v>
@@ -4472,13 +4163,11 @@
       <c r="C220" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="D220" s="2"/>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>4</v>
@@ -4486,13 +4175,11 @@
       <c r="C221" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D221" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="D221" s="2"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>4</v>
@@ -4500,39 +4187,37 @@
       <c r="C222" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D222" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="D222" s="2"/>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D223" s="2"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2" t="s">
-        <v>288</v>
+        <v>183</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D224" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2" t="s">
-        <v>289</v>
+        <v>180</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>4</v>
@@ -4540,11 +4225,13 @@
       <c r="C225" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D225" s="2"/>
+      <c r="D225" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>290</v>
+        <v>182</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>4</v>
@@ -4552,11 +4239,13 @@
       <c r="C226" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D226" s="2"/>
+      <c r="D226" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>4</v>
@@ -4564,11 +4253,13 @@
       <c r="C227" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D227" s="2"/>
+      <c r="D227" s="2" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>4</v>
@@ -4576,11 +4267,13 @@
       <c r="C228" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D228" s="2"/>
+      <c r="D228" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>4</v>
@@ -4588,23 +4281,27 @@
       <c r="C229" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D229" s="2"/>
+      <c r="D229" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D230" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>4</v>
@@ -4613,24 +4310,26 @@
         <v>6</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>296</v>
+        <v>179</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D232" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2" t="s">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>4</v>
@@ -4638,23 +4337,25 @@
       <c r="C233" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D233" s="2"/>
+      <c r="D233" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2" t="s">
-        <v>298</v>
+        <v>185</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D234" s="2"/>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2" t="s">
-        <v>299</v>
+        <v>186</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>4</v>
@@ -4666,7 +4367,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2" t="s">
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>4</v>
@@ -4678,7 +4379,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2" t="s">
-        <v>301</v>
+        <v>188</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>4</v>
@@ -4690,19 +4391,19 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2" t="s">
-        <v>302</v>
+        <v>189</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D238" s="2"/>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2" t="s">
-        <v>303</v>
+        <v>190</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>4</v>
@@ -4710,27 +4411,23 @@
       <c r="C239" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="D239" s="2"/>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2" t="s">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D240" s="2"/>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>4</v>
@@ -4738,13 +4435,11 @@
       <c r="C241" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D241" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="D241" s="2"/>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>4</v>
@@ -4752,13 +4447,11 @@
       <c r="C242" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D242" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="D242" s="2"/>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>4</v>
@@ -4766,25 +4459,23 @@
       <c r="C243" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D243" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="D243" s="2"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D244" s="2"/>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>4</v>
@@ -4796,1072 +4487,511 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D246" s="2"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
       <c r="D247" s="2"/>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
       <c r="D248" s="2"/>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
       <c r="D249" s="2"/>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
       <c r="D250" s="2"/>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="A251" s="2"/>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A252" s="2"/>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A253" s="2"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
       <c r="D253" s="2"/>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A254" s="2"/>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
       <c r="D254" s="2"/>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A255" s="2"/>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
       <c r="D255" s="2"/>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A256" s="2"/>
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
       <c r="D256" s="2"/>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
       <c r="D257" s="2"/>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
       <c r="D258" s="2"/>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
       <c r="D259" s="2"/>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A260" s="2"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A261" s="2"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A263" s="2"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A264" s="2"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
       <c r="D265" s="2"/>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A266" s="2"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
       <c r="D266" s="2"/>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A267" s="2"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
       <c r="D267" s="2"/>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A268" s="2"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
       <c r="D268" s="2"/>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A269" s="2"/>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
       <c r="D269" s="2"/>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A270" s="2"/>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
       <c r="D270" s="2"/>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A271" s="2"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
       <c r="D271" s="2"/>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A273" s="2"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A274" s="2"/>
+      <c r="B274" s="2"/>
+      <c r="C274" s="2"/>
       <c r="D274" s="2"/>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A275" s="2"/>
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
       <c r="D275" s="2"/>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A276" s="2"/>
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
       <c r="D276" s="2"/>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
       <c r="D277" s="2"/>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A278" s="2"/>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
       <c r="D278" s="2"/>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A279" s="2"/>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
       <c r="D279" s="2"/>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A280" s="2"/>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
       <c r="D280" s="2"/>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="A281" s="2"/>
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A282" s="2"/>
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
       <c r="D282" s="2"/>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A283" s="2"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
       <c r="D283" s="2"/>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A284" s="2"/>
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
       <c r="D284" s="2"/>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
       <c r="D285" s="2"/>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A286" s="2"/>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
       <c r="D286" s="2"/>
     </row>
     <row r="287" spans="1:4">
-      <c r="A287" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A287" s="2"/>
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
       <c r="D287" s="2"/>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A288" s="2"/>
+      <c r="B288" s="2"/>
+      <c r="C288" s="2"/>
       <c r="D288" s="2"/>
     </row>
     <row r="289" spans="1:4">
-      <c r="A289" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="A289" s="2"/>
+      <c r="B289" s="2"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="2"/>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="A290" s="2"/>
+      <c r="B290" s="2"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="2"/>
     </row>
     <row r="291" spans="1:4">
-      <c r="A291" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="A291" s="2"/>
+      <c r="B291" s="2"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="2"/>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="A292" s="2"/>
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="A293" s="2"/>
+      <c r="B293" s="2"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="A294" s="2"/>
+      <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
     </row>
     <row r="295" spans="1:4">
-      <c r="A295" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A295" s="2"/>
+      <c r="B295" s="2"/>
+      <c r="C295" s="2"/>
       <c r="D295" s="2"/>
     </row>
     <row r="296" spans="1:4">
-      <c r="A296" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A296" s="2"/>
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
       <c r="D296" s="2"/>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A297" s="2"/>
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
       <c r="D297" s="2"/>
     </row>
     <row r="298" spans="1:4">
-      <c r="A298" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A298" s="2"/>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
       <c r="D298" s="2"/>
     </row>
     <row r="299" spans="1:4">
-      <c r="A299" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A299" s="2"/>
+      <c r="B299" s="2"/>
+      <c r="C299" s="2"/>
       <c r="D299" s="2"/>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A300" s="2"/>
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
       <c r="D300" s="2"/>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A301" s="2"/>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
       <c r="D301" s="2"/>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="A302" s="2"/>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2"/>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="A303" s="2"/>
+      <c r="B303" s="2"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="2"/>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="A304" s="2"/>
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="A305" s="2"/>
+      <c r="B305" s="2"/>
+      <c r="C305" s="2"/>
+      <c r="D305" s="2"/>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="A306" s="2"/>
+      <c r="B306" s="2"/>
+      <c r="C306" s="2"/>
+      <c r="D306" s="2"/>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="A307" s="2"/>
+      <c r="B307" s="2"/>
+      <c r="C307" s="2"/>
+      <c r="D307" s="2"/>
     </row>
     <row r="308" spans="1:4">
-      <c r="A308" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="A308" s="2"/>
+      <c r="B308" s="2"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
     </row>
     <row r="309" spans="1:4">
-      <c r="A309" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A309" s="2"/>
+      <c r="B309" s="2"/>
+      <c r="C309" s="2"/>
       <c r="D309" s="2"/>
     </row>
     <row r="310" spans="1:4">
-      <c r="A310" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A310" s="2"/>
+      <c r="B310" s="2"/>
+      <c r="C310" s="2"/>
       <c r="D310" s="2"/>
     </row>
     <row r="311" spans="1:4">
-      <c r="A311" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A311" s="2"/>
+      <c r="B311" s="2"/>
+      <c r="C311" s="2"/>
       <c r="D311" s="2"/>
     </row>
     <row r="312" spans="1:4">
-      <c r="A312" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A312" s="2"/>
+      <c r="B312" s="2"/>
+      <c r="C312" s="2"/>
       <c r="D312" s="2"/>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A313" s="2"/>
+      <c r="B313" s="2"/>
+      <c r="C313" s="2"/>
       <c r="D313" s="2"/>
     </row>
     <row r="314" spans="1:4">
-      <c r="A314" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A314" s="2"/>
+      <c r="B314" s="2"/>
+      <c r="C314" s="2"/>
       <c r="D314" s="2"/>
     </row>
     <row r="315" spans="1:4">
-      <c r="A315" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A315" s="2"/>
+      <c r="B315" s="2"/>
+      <c r="C315" s="2"/>
       <c r="D315" s="2"/>
     </row>
     <row r="316" spans="1:4">
-      <c r="A316" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="A316" s="2"/>
+      <c r="B316" s="2"/>
+      <c r="C316" s="2"/>
+      <c r="D316" s="2"/>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A317" s="2"/>
+      <c r="B317" s="2"/>
+      <c r="C317" s="2"/>
+      <c r="D317" s="2"/>
     </row>
     <row r="318" spans="1:4">
-      <c r="A318" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A318" s="2"/>
+      <c r="B318" s="2"/>
+      <c r="C318" s="2"/>
       <c r="D318" s="2"/>
     </row>
     <row r="319" spans="1:4">
-      <c r="A319" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A319" s="2"/>
+      <c r="B319" s="2"/>
+      <c r="C319" s="2"/>
       <c r="D319" s="2"/>
     </row>
     <row r="320" spans="1:4">
-      <c r="A320" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A320" s="2"/>
+      <c r="B320" s="2"/>
+      <c r="C320" s="2"/>
       <c r="D320" s="2"/>
     </row>
     <row r="321" spans="1:4">
-      <c r="A321" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A321" s="2"/>
+      <c r="B321" s="2"/>
+      <c r="C321" s="2"/>
       <c r="D321" s="2"/>
     </row>
     <row r="322" spans="1:4">
-      <c r="A322" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A322" s="2"/>
+      <c r="B322" s="2"/>
+      <c r="C322" s="2"/>
       <c r="D322" s="2"/>
     </row>
     <row r="323" spans="1:4">
-      <c r="A323" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A323" s="2"/>
+      <c r="B323" s="2"/>
+      <c r="C323" s="2"/>
       <c r="D323" s="2"/>
     </row>
     <row r="324" spans="1:4">
-      <c r="A324" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A324" s="2"/>
+      <c r="B324" s="2"/>
+      <c r="C324" s="2"/>
       <c r="D324" s="2"/>
     </row>
     <row r="325" spans="1:4">
-      <c r="A325" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A325" s="2"/>
+      <c r="B325" s="2"/>
+      <c r="C325" s="2"/>
       <c r="D325" s="2"/>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A326" s="2"/>
+      <c r="B326" s="2"/>
+      <c r="C326" s="2"/>
       <c r="D326" s="2"/>
     </row>
     <row r="327" spans="1:4">
-      <c r="A327" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A327" s="2"/>
+      <c r="B327" s="2"/>
+      <c r="C327" s="2"/>
       <c r="D327" s="2"/>
     </row>
     <row r="328" spans="1:4">
-      <c r="A328" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A328" s="2"/>
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
       <c r="D328" s="2"/>
     </row>
     <row r="329" spans="1:4">
-      <c r="A329" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D329" s="2"/>
-    </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A329" s="2"/>
+      <c r="B329" s="2"/>
+      <c r="C329" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
